--- a/data/OSCAR APPRECIATION (Responses).xlsx
+++ b/data/OSCAR APPRECIATION (Responses).xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
   <si>
     <t>Timestamp</t>
   </si>
@@ -236,6 +236,45 @@
   </si>
   <si>
     <t xml:space="preserve">You are doing AMAZING Oscar. Rooting for you win this years championship and many many others </t>
+  </si>
+  <si>
+    <t>You’ve got this, Oscar! 2025 is your year :)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hope you have a really happy rest of the season Oscar! You are going to be a World Champion very soon, and we’re going to be right by your side. Keep up the good work! I’m sure we’ll see OP1 soon on your cap, for many many years. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">oscar piastri domination could never bore me. hope to see you win this year and every single year to come. keep shining xx </t>
+  </si>
+  <si>
+    <t xml:space="preserve">@rosiierix </t>
+  </si>
+  <si>
+    <t>Hi Oscar! Watching F1, it has been an lovely experience for me to see you grow throughout your journey and I am in awe of what you have achieved in such a short time. I hope this success follows you well into the future. I'm sure there must a lot of pressure on you to give the best results, I just hope that you know there are a whole bunch of people rooting for you and we'll be there no matter what. With lots of love from a person looking up to you, I wish you the best. Go get that championship 🏆!!!</t>
+  </si>
+  <si>
+    <t>Hi Oscar I wanted to wish you the best of luck for the upcoming races. I've been supporting you since f3, I'm so so proud of how far you've come and the driver you are today. I'm sure you'll go very far in your career. Here's to many more race wins and hopefully the ultimate goal: your first championship 🫶🤞</t>
+  </si>
+  <si>
+    <t>@44piastri</t>
+  </si>
+  <si>
+    <t>Oscar you are a punk rocker!!</t>
+  </si>
+  <si>
+    <t>i’ve loved this season so far! and maybe especially china and bahrain and saudi arabia and miami and barcelona… for no reason at all. the comeback from australia has actually been insane. from 2 points to leading the championship after only 4 more races (please tell me i got that right) is just wow, and if that is possible then winning the championship is definitely possible. so many of us r rooting for you, you got dis!! :DDD</t>
+  </si>
+  <si>
+    <t>@LunaF1_Addicted (PLEASE. DONT. ASK. i specialise in making cringe usernames that i painfully regret soon after.)</t>
+  </si>
+  <si>
+    <t>Just a quick reminder that you’re doing incredible things out there. Every race, every lap, every challenge you face—you’re showing the world exactly why you belong at the top level of motorsport.
+Your talent, focus, and calm under pressure speak volumes, and fans everywhere are backing you not just for your skill but for the way you carry yourself!
+No matter how this season ends up, we are all endlessly proud of what you’ve accomplished!
+Keep pushing and keep learning! Know that even the toughest days are building up to something bigger. Your best is yet to come.</t>
+  </si>
+  <si>
+    <t>@luhugheslvr</t>
   </si>
 </sst>
 </file>
@@ -440,7 +479,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -477,6 +516,21 @@
     <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
+    <xf borderId="7" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
     <xf borderId="10" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -484,7 +538,7 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="12" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -544,7 +598,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:C46" displayName="Form_Responses" name="Form_Responses" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:C54" displayName="Form_Responses" name="Form_Responses" id="1">
   <tableColumns count="3">
     <tableColumn name="Timestamp" id="1"/>
     <tableColumn name="Message" id="2"/>
@@ -1224,13 +1278,89 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="12">
+      <c r="A46" s="4">
         <v>45858.75575251157</v>
       </c>
-      <c r="B46" s="13" t="s">
+      <c r="B46" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C46" s="14"/>
+      <c r="C46" s="6"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="12">
+        <v>45859.129413125</v>
+      </c>
+      <c r="B47" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="14">
+        <v>45859.74607678241</v>
+      </c>
+      <c r="B48" s="15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="12">
+        <v>45859.75161738426</v>
+      </c>
+      <c r="B49" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C49" s="16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="14">
+        <v>45859.76118043982</v>
+      </c>
+      <c r="B50" s="15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="12">
+        <v>45859.76808263889</v>
+      </c>
+      <c r="B51" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C51" s="16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="14">
+        <v>45859.77178178241</v>
+      </c>
+      <c r="B52" s="15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="12">
+        <v>45859.78327734953</v>
+      </c>
+      <c r="B53" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C53" s="16" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="17">
+        <v>45859.78734780093</v>
+      </c>
+      <c r="B54" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="C54" s="19" t="s">
+        <v>85</v>
+      </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/data/OSCAR APPRECIATION (Responses).xlsx
+++ b/data/OSCAR APPRECIATION (Responses).xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
   <si>
     <t>Timestamp</t>
   </si>
@@ -20,6 +20,15 @@
   </si>
   <si>
     <t>TwitterUsername</t>
+  </si>
+  <si>
+    <t>hi oscar, it's genuinely such a joy and privilege to get to watch you race and fight at the top! i'm so happy to be your fan and i can't wait to see every bit of nail biting racing action you give us, we're all rooting for you!</t>
+  </si>
+  <si>
+    <t>@hoodieoscar</t>
+  </si>
+  <si>
+    <t>hi oscar! watching your growth and success this year has been nothing short of incredible. i, and so many others, know you have what it takes to win this championship, and we cannot wait to see you do it. don’t forget that there are so many people supporting you. best of luck for the second half of the season!! &lt;3</t>
   </si>
   <si>
     <t>you are the goat we love every single one of ur overtakes you’ve got this championship in the bag and we’ll be here cheering no matter what. big love from australia</t>
@@ -499,7 +508,7 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="7" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
@@ -508,12 +517,12 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="7" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
@@ -598,7 +607,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:C54" displayName="Form_Responses" name="Form_Responses" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:C56" displayName="Form_Responses" name="Form_Responses" id="1">
   <tableColumns count="3">
     <tableColumn name="Timestamp" id="1"/>
     <tableColumn name="Message" id="2"/>
@@ -830,492 +839,489 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4">
-        <v>45857.50870803241</v>
-      </c>
+      <c r="A2" s="4"/>
       <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="6"/>
+      <c r="C2" s="6" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="7">
-        <v>45857.51381578704</v>
-      </c>
+      <c r="A3" s="7"/>
       <c r="B3" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="9" t="s">
         <v>5</v>
       </c>
+      <c r="C3" s="9"/>
     </row>
     <row r="4">
       <c r="A4" s="4">
-        <v>45857.51660321759</v>
+        <v>45857.50870803241</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="6"/>
+      <c r="C4" s="10"/>
     </row>
     <row r="5">
       <c r="A5" s="7">
-        <v>45857.51947381944</v>
+        <v>45857.51381578704</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="10"/>
+      <c r="C5" s="11" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="4">
-        <v>45857.52128086805</v>
+        <v>45857.51660321759</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="11" t="s">
         <v>9</v>
       </c>
+      <c r="C6" s="10"/>
     </row>
     <row r="7">
       <c r="A7" s="7">
-        <v>45857.52232403935</v>
+        <v>45857.51947381944</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>11</v>
-      </c>
+      <c r="C7" s="9"/>
     </row>
     <row r="8">
       <c r="A8" s="4">
-        <v>45857.5247166551</v>
+        <v>45857.52128086805</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>12</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="7">
-        <v>45857.52724354167</v>
+        <v>45857.52232403935</v>
       </c>
       <c r="B9" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="11" t="s">
         <v>14</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4">
-        <v>45857.52834171296</v>
+        <v>45857.5247166551</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="7">
-        <v>45857.5383147338</v>
+        <v>45857.52724354167</v>
       </c>
       <c r="B11" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>18</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="4">
-        <v>45857.545994722226</v>
+        <v>45857.52834171296</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>20</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="7">
-        <v>45857.55069204861</v>
+        <v>45857.5383147338</v>
       </c>
       <c r="B13" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="10"/>
     </row>
     <row r="14">
       <c r="A14" s="4">
-        <v>45857.55982609953</v>
+        <v>45857.545994722226</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="6"/>
+      <c r="C14" s="6" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="7">
-        <v>45857.566953113426</v>
+        <v>45857.55069204861</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="10"/>
+        <v>25</v>
+      </c>
+      <c r="C15" s="9"/>
     </row>
     <row r="16">
       <c r="A16" s="4">
-        <v>45857.57284607639</v>
+        <v>45857.55982609953</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="6"/>
+        <v>26</v>
+      </c>
+      <c r="C16" s="10"/>
     </row>
     <row r="17">
       <c r="A17" s="7">
-        <v>45857.692614467596</v>
+        <v>45857.566953113426</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="10"/>
+        <v>27</v>
+      </c>
+      <c r="C17" s="9"/>
     </row>
     <row r="18">
       <c r="A18" s="4">
-        <v>45857.746839178246</v>
+        <v>45857.57284607639</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="11" t="s">
         <v>28</v>
       </c>
+      <c r="C18" s="10"/>
     </row>
     <row r="19">
       <c r="A19" s="7">
-        <v>45857.749663553244</v>
+        <v>45857.692614467596</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="10"/>
+      <c r="C19" s="9"/>
     </row>
     <row r="20">
       <c r="A20" s="4">
-        <v>45857.750282430556</v>
+        <v>45857.746839178246</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="6"/>
+      <c r="C20" s="6" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="7">
-        <v>45857.75187680556</v>
+        <v>45857.749663553244</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" s="9" t="s">
         <v>32</v>
       </c>
+      <c r="C21" s="9"/>
     </row>
     <row r="22">
       <c r="A22" s="4">
-        <v>45857.756722997685</v>
+        <v>45857.750282430556</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="6"/>
+      <c r="C22" s="10"/>
     </row>
     <row r="23">
       <c r="A23" s="7">
-        <v>45857.760794409725</v>
+        <v>45857.75187680556</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="9"/>
+      <c r="C23" s="11" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="4">
-        <v>45857.769581354165</v>
+        <v>45857.756722997685</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C24" s="6"/>
+        <v>36</v>
+      </c>
+      <c r="C24" s="10"/>
     </row>
     <row r="25">
       <c r="A25" s="7">
-        <v>45857.79394314815</v>
+        <v>45857.760794409725</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C25" s="9" t="s">
         <v>37</v>
       </c>
+      <c r="C25" s="11"/>
     </row>
     <row r="26">
       <c r="A26" s="4">
-        <v>45857.86361519676</v>
+        <v>45857.769581354165</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="11" t="s">
-        <v>39</v>
-      </c>
+      <c r="C26" s="10"/>
     </row>
     <row r="27">
       <c r="A27" s="7">
-        <v>45857.870095798615</v>
+        <v>45857.79394314815</v>
       </c>
       <c r="B27" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C27" s="10"/>
     </row>
     <row r="28">
       <c r="A28" s="4">
-        <v>45857.90547601852</v>
+        <v>45857.86361519676</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="6"/>
+      <c r="C28" s="6" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="7">
-        <v>45857.914507928246</v>
+        <v>45857.870095798615</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C29" s="9" t="s">
         <v>43</v>
       </c>
+      <c r="C29" s="9"/>
     </row>
     <row r="30">
       <c r="A30" s="4">
-        <v>45857.9177328125</v>
+        <v>45857.90547601852</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C30" s="11" t="s">
-        <v>45</v>
-      </c>
+      <c r="C30" s="10"/>
     </row>
     <row r="31">
       <c r="A31" s="7">
-        <v>45857.918477893516</v>
+        <v>45857.914507928246</v>
       </c>
       <c r="B31" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C31" s="10"/>
     </row>
     <row r="32">
       <c r="A32" s="4">
-        <v>45857.925820752316</v>
+        <v>45857.9177328125</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="C32" s="6" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="7">
-        <v>45857.96903769676</v>
+        <v>45857.918477893516</v>
       </c>
       <c r="B33" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C33" s="9" t="s">
-        <v>50</v>
-      </c>
+      <c r="C33" s="9"/>
     </row>
     <row r="34">
       <c r="A34" s="4">
-        <v>45858.06212783565</v>
+        <v>45857.925820752316</v>
       </c>
       <c r="B34" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C34" s="6" t="s">
         <v>51</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="7">
-        <v>45858.07856790509</v>
+        <v>45857.96903769676</v>
       </c>
       <c r="B35" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35" s="11" t="s">
         <v>53</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="4">
-        <v>45858.09083832176</v>
+        <v>45858.06212783565</v>
       </c>
       <c r="B36" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C36" s="6" t="s">
         <v>55</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="7">
-        <v>45858.09208375</v>
+        <v>45858.07856790509</v>
       </c>
       <c r="B37" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C37" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C37" s="10"/>
     </row>
     <row r="38">
       <c r="A38" s="4">
-        <v>45858.108008877316</v>
+        <v>45858.09083832176</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C38" s="11" t="s">
+      <c r="C38" s="6" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="7">
-        <v>45858.12328414352</v>
+        <v>45858.09208375</v>
       </c>
       <c r="B39" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C39" s="9" t="s">
-        <v>61</v>
-      </c>
+      <c r="C39" s="9"/>
     </row>
     <row r="40">
       <c r="A40" s="4">
-        <v>45858.15959938658</v>
+        <v>45858.108008877316</v>
       </c>
       <c r="B40" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C40" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C40" s="6"/>
     </row>
     <row r="41">
       <c r="A41" s="7">
-        <v>45858.17638047454</v>
+        <v>45858.12328414352</v>
       </c>
       <c r="B41" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C41" s="9" t="s">
+      <c r="C41" s="11" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="4">
-        <v>45858.200160312495</v>
+        <v>45858.15959938658</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C42" s="11" t="s">
-        <v>66</v>
-      </c>
+      <c r="C42" s="10"/>
     </row>
     <row r="43">
       <c r="A43" s="7">
-        <v>45858.45774751157</v>
+        <v>45858.17638047454</v>
       </c>
       <c r="B43" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C43" s="11" t="s">
         <v>67</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="4">
-        <v>45858.64290122685</v>
+        <v>45858.200160312495</v>
       </c>
       <c r="B44" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C44" s="6" t="s">
         <v>69</v>
-      </c>
-      <c r="C44" s="11" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="7">
-        <v>45858.7269978125</v>
+        <v>45858.45774751157</v>
       </c>
       <c r="B45" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45" s="11" t="s">
         <v>71</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="4">
+        <v>45858.64290122685</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="7">
+        <v>45858.7269978125</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="4">
         <v>45858.75575251157</v>
       </c>
-      <c r="B46" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C46" s="6"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="12">
-        <v>45859.129413125</v>
-      </c>
-      <c r="B47" s="13" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="14">
-        <v>45859.74607678241</v>
-      </c>
-      <c r="B48" s="15" t="s">
-        <v>75</v>
-      </c>
+      <c r="B48" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C48" s="10"/>
     </row>
     <row r="49">
       <c r="A49" s="12">
-        <v>45859.75161738426</v>
+        <v>45859.129413125</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="C49" s="16" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="14">
-        <v>45859.76118043982</v>
+        <v>45859.74607678241</v>
       </c>
       <c r="B50" s="15" t="s">
         <v>78</v>
@@ -1323,7 +1329,7 @@
     </row>
     <row r="51">
       <c r="A51" s="12">
-        <v>45859.76808263889</v>
+        <v>45859.75161738426</v>
       </c>
       <c r="B51" s="13" t="s">
         <v>79</v>
@@ -1334,7 +1340,7 @@
     </row>
     <row r="52">
       <c r="A52" s="14">
-        <v>45859.77178178241</v>
+        <v>45859.76118043982</v>
       </c>
       <c r="B52" s="15" t="s">
         <v>81</v>
@@ -1342,7 +1348,7 @@
     </row>
     <row r="53">
       <c r="A53" s="12">
-        <v>45859.78327734953</v>
+        <v>45859.76808263889</v>
       </c>
       <c r="B53" s="13" t="s">
         <v>82</v>
@@ -1352,14 +1358,33 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="17">
+      <c r="A54" s="14">
+        <v>45859.77178178241</v>
+      </c>
+      <c r="B54" s="15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="12">
+        <v>45859.78327734953</v>
+      </c>
+      <c r="B55" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C55" s="16" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="17">
         <v>45859.78734780093</v>
       </c>
-      <c r="B54" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="C54" s="19" t="s">
-        <v>85</v>
+      <c r="B56" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="C56" s="19" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
